--- a/src/main/java/week8_Apr01_Apr07/DataSample.xlsx
+++ b/src/main/java/week8_Apr01_Apr07/DataSample.xlsx
@@ -1,43 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PNT Staff\eclipse-workspace-kumarpanda\AUTOMATION_MAVEN_PROJECT\src\test\java\automation_code_13thNov_2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w_ahs\Desktop\Waqas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B14A49AC-886A-408F-A7BC-03A08690A4D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E68ADA3-0C53-48AD-A3B0-BF84F1FCB85F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{2B28258E-9638-4309-82ED-51210529D215}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" xr2:uid="{2B28258E-9638-4309-82ED-51210529D215}"/>
   </bookViews>
   <sheets>
     <sheet name="BrowserTest" sheetId="1" r:id="rId1"/>
     <sheet name="ShoppingTest" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>Execution</t>
   </si>
@@ -112,6 +101,9 @@
   </si>
   <si>
     <t>SonyTv</t>
+  </si>
+  <si>
+    <t>Testing</t>
   </si>
 </sst>
 </file>
@@ -514,8 +506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D79FCBA-A643-4B8C-81EA-2664AC547485}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
@@ -601,7 +593,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA7814DC-0287-4F0C-BED1-25D16DF25F0C}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -609,7 +601,7 @@
   <cols>
     <col min="1" max="1" customWidth="true" width="42.42578125" collapsed="false"/>
     <col min="2" max="2" customWidth="true" width="34.42578125" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="24.375" collapsed="false" bestFit="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="24.375" collapsed="false"/>
     <col min="4" max="4" customWidth="true" width="41.28515625" collapsed="false"/>
     <col min="5" max="5" customWidth="true" width="27.85546875" collapsed="false"/>
   </cols>
@@ -699,9 +691,9 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
